--- a/master_trades.xlsx
+++ b/master_trades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,22 +561,22 @@
         <v>930</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.25611</v>
+        <v>-0.256</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.22995</v>
+        <v>-0.23</v>
       </c>
       <c r="I2" t="n">
-        <v>0.60611</v>
+        <v>0.606</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5718</v>
+        <v>0.572</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2586</v>
+        <v>0.259</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2471</v>
+        <v>0.247</v>
       </c>
       <c r="M2" t="n">
         <v>7.25</v>
@@ -600,10 +600,10 @@
         <v>117.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.127659574468086</v>
+        <v>1.128</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8905395446808513</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="3">
@@ -632,22 +632,22 @@
         <v>930</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.27617</v>
+        <v>-0.276</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.22995</v>
+        <v>-0.23</v>
       </c>
       <c r="I3" t="n">
-        <v>0.62969</v>
+        <v>0.63</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5718</v>
+        <v>0.572</v>
       </c>
       <c r="K3" t="n">
-        <v>0.26254</v>
+        <v>0.263</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2471</v>
+        <v>0.247</v>
       </c>
       <c r="M3" t="n">
         <v>7.95</v>
@@ -671,10 +671,10 @@
         <v>272.5</v>
       </c>
       <c r="T3" t="n">
-        <v>0.834862385321101</v>
+        <v>0.835</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7158534111926607</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="4">
@@ -703,22 +703,22 @@
         <v>620</v>
       </c>
       <c r="G4" t="n">
-        <v>0.28439</v>
+        <v>0.284</v>
       </c>
       <c r="H4" t="n">
-        <v>0.26857</v>
+        <v>0.269</v>
       </c>
       <c r="I4" t="n">
-        <v>0.37774</v>
+        <v>0.378</v>
       </c>
       <c r="J4" t="n">
-        <v>0.36728</v>
+        <v>0.367</v>
       </c>
       <c r="K4" t="n">
-        <v>0.65163</v>
+        <v>0.652</v>
       </c>
       <c r="L4" t="n">
-        <v>0.63793</v>
+        <v>0.638</v>
       </c>
       <c r="M4" t="n">
         <v>10.3</v>
@@ -742,10 +742,10 @@
         <v>139.9999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7857142857142875</v>
+        <v>0.786</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7035109114285725</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="5">
@@ -774,22 +774,22 @@
         <v>932.5</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.27617</v>
+        <v>-0.276</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.25611</v>
+        <v>-0.256</v>
       </c>
       <c r="I5" t="n">
-        <v>0.62969</v>
+        <v>0.63</v>
       </c>
       <c r="J5" t="n">
-        <v>0.60611</v>
+        <v>0.606</v>
       </c>
       <c r="K5" t="n">
-        <v>0.26254</v>
+        <v>0.263</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2586</v>
+        <v>0.259</v>
       </c>
       <c r="M5" t="n">
         <v>7.95</v>
@@ -813,10 +813,10 @@
         <v>155</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6129032258064517</v>
+        <v>0.613</v>
       </c>
       <c r="U5" t="n">
-        <v>0.582677915483871</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="6">
@@ -845,22 +845,22 @@
         <v>930</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.28966</v>
+        <v>-0.29</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.22995</v>
+        <v>-0.23</v>
       </c>
       <c r="I6" t="n">
-        <v>0.64427</v>
+        <v>0.644</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5718</v>
+        <v>0.572</v>
       </c>
       <c r="K6" t="n">
-        <v>0.25625</v>
+        <v>0.256</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2471</v>
+        <v>0.247</v>
       </c>
       <c r="M6" t="n">
         <v>8.25</v>
@@ -884,10 +884,10 @@
         <v>487.5</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.538</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5373213030769229</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="7">
@@ -896,69 +896,69 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>260130</t>
+          <t>260206</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>617.5</v>
+        <v>305</v>
       </c>
       <c r="F7" t="n">
-        <v>622.5</v>
+        <v>300</v>
       </c>
       <c r="G7" t="n">
-        <v>0.28439</v>
+        <v>-0.253</v>
       </c>
       <c r="H7" t="n">
-        <v>0.25923</v>
+        <v>-0.203</v>
       </c>
       <c r="I7" t="n">
-        <v>0.37774</v>
+        <v>0.251</v>
       </c>
       <c r="J7" t="n">
-        <v>0.36072</v>
+        <v>0.221</v>
       </c>
       <c r="K7" t="n">
-        <v>0.65163</v>
+        <v>0.492</v>
       </c>
       <c r="L7" t="n">
-        <v>0.64095</v>
+        <v>0.473</v>
       </c>
       <c r="M7" t="n">
-        <v>10.3</v>
+        <v>4.65</v>
       </c>
       <c r="N7" t="n">
-        <v>13.8</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
-        <v>8.800000000000001</v>
+        <v>2.95</v>
       </c>
       <c r="P7" t="n">
-        <v>12.2</v>
+        <v>5.95</v>
       </c>
       <c r="Q7" t="n">
         <v>500</v>
       </c>
       <c r="R7" t="n">
-        <v>155.0000000000001</v>
+        <v>177.4999999999999</v>
       </c>
       <c r="S7" t="n">
-        <v>344.9999999999999</v>
+        <v>322.5000000000001</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4492753623188408</v>
+        <v>0.55</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5016475573913045</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="8">
@@ -981,55 +981,55 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>615</v>
+        <v>617.5</v>
       </c>
       <c r="F8" t="n">
-        <v>620</v>
+        <v>622.5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.29325</v>
+        <v>0.284</v>
       </c>
       <c r="H8" t="n">
-        <v>0.26857</v>
+        <v>0.259</v>
       </c>
       <c r="I8" t="n">
-        <v>0.38323</v>
+        <v>0.378</v>
       </c>
       <c r="J8" t="n">
-        <v>0.36728</v>
+        <v>0.361</v>
       </c>
       <c r="K8" t="n">
-        <v>0.64594</v>
+        <v>0.652</v>
       </c>
       <c r="L8" t="n">
-        <v>0.63793</v>
+        <v>0.641</v>
       </c>
       <c r="M8" t="n">
-        <v>11.5</v>
+        <v>10.3</v>
       </c>
       <c r="N8" t="n">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
       <c r="O8" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="Q8" t="n">
         <v>500</v>
       </c>
       <c r="R8" t="n">
-        <v>150</v>
+        <v>155.0000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>350</v>
+        <v>344.9999999999999</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.449</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4880202171428571</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="9">
@@ -1038,12 +1038,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1052,55 +1052,55 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>337.5</v>
+        <v>615</v>
       </c>
       <c r="F9" t="n">
-        <v>335</v>
+        <v>620</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.24159</v>
+        <v>0.293</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.22002</v>
+        <v>0.269</v>
       </c>
       <c r="I9" t="n">
-        <v>0.22162</v>
+        <v>0.383</v>
       </c>
       <c r="J9" t="n">
-        <v>0.21034</v>
+        <v>0.367</v>
       </c>
       <c r="K9" t="n">
-        <v>0.58238</v>
+        <v>0.646</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5773200000000001</v>
+        <v>0.638</v>
       </c>
       <c r="M9" t="n">
-        <v>5.8</v>
+        <v>11.5</v>
       </c>
       <c r="N9" t="n">
-        <v>6.7</v>
+        <v>13.4</v>
       </c>
       <c r="O9" t="n">
-        <v>5.3</v>
+        <v>10</v>
       </c>
       <c r="P9" t="n">
-        <v>5.65</v>
+        <v>11.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="R9" t="n">
-        <v>77.50000000000003</v>
+        <v>150</v>
       </c>
       <c r="S9" t="n">
-        <v>172.5</v>
+        <v>350</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4492753623188408</v>
+        <v>0.429</v>
       </c>
       <c r="U9" t="n">
-        <v>0.4773657473913045</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="10">
@@ -1123,55 +1123,55 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>342.5</v>
+        <v>337.5</v>
       </c>
       <c r="F10" t="n">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.28013</v>
+        <v>-0.242</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.25869</v>
+        <v>-0.22</v>
       </c>
       <c r="I10" t="n">
-        <v>0.23917</v>
+        <v>0.222</v>
       </c>
       <c r="J10" t="n">
-        <v>0.22981</v>
+        <v>0.21</v>
       </c>
       <c r="K10" t="n">
-        <v>0.56974</v>
+        <v>0.582</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5705</v>
+        <v>0.577</v>
       </c>
       <c r="M10" t="n">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="N10" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="O10" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="P10" t="n">
-        <v>6.8</v>
+        <v>5.65</v>
       </c>
       <c r="Q10" t="n">
         <v>250</v>
       </c>
       <c r="R10" t="n">
-        <v>75</v>
+        <v>77.50000000000003</v>
       </c>
       <c r="S10" t="n">
-        <v>175</v>
+        <v>172.5</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.449</v>
       </c>
       <c r="U10" t="n">
-        <v>0.4604705971428571</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="11">
@@ -1180,12 +1180,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1194,55 +1194,55 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>617.5</v>
+        <v>342.5</v>
       </c>
       <c r="F11" t="n">
-        <v>625</v>
+        <v>340</v>
       </c>
       <c r="G11" t="n">
-        <v>0.28439</v>
+        <v>-0.28</v>
       </c>
       <c r="H11" t="n">
-        <v>0.25</v>
+        <v>-0.259</v>
       </c>
       <c r="I11" t="n">
-        <v>0.37774</v>
+        <v>0.239</v>
       </c>
       <c r="J11" t="n">
-        <v>0.35393</v>
+        <v>0.23</v>
       </c>
       <c r="K11" t="n">
-        <v>0.65163</v>
+        <v>0.57</v>
       </c>
       <c r="L11" t="n">
-        <v>0.64347</v>
+        <v>0.571</v>
       </c>
       <c r="M11" t="n">
-        <v>10.3</v>
+        <v>7.3</v>
       </c>
       <c r="N11" t="n">
-        <v>13.8</v>
+        <v>7.6</v>
       </c>
       <c r="O11" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="P11" t="n">
-        <v>10.9</v>
+        <v>6.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="R11" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="S11" t="n">
-        <v>550</v>
+        <v>175</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.429</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4502641581818182</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="12">
@@ -1251,69 +1251,69 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>260130</t>
+          <t>260206</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>615</v>
+        <v>310</v>
       </c>
       <c r="F12" t="n">
-        <v>622.5</v>
+        <v>300</v>
       </c>
       <c r="G12" t="n">
-        <v>0.29325</v>
+        <v>-0.295</v>
       </c>
       <c r="H12" t="n">
-        <v>0.25923</v>
+        <v>-0.203</v>
       </c>
       <c r="I12" t="n">
-        <v>0.38323</v>
+        <v>0.271</v>
       </c>
       <c r="J12" t="n">
-        <v>0.36072</v>
+        <v>0.221</v>
       </c>
       <c r="K12" t="n">
-        <v>0.64594</v>
+        <v>0.479</v>
       </c>
       <c r="L12" t="n">
-        <v>0.64095</v>
+        <v>0.473</v>
       </c>
       <c r="M12" t="n">
-        <v>11.5</v>
+        <v>6.1</v>
       </c>
       <c r="N12" t="n">
-        <v>13.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>8.800000000000001</v>
+        <v>2.95</v>
       </c>
       <c r="P12" t="n">
-        <v>12.2</v>
+        <v>5.95</v>
       </c>
       <c r="Q12" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="R12" t="n">
-        <v>194.9999999999999</v>
+        <v>300</v>
       </c>
       <c r="S12" t="n">
-        <v>555</v>
+        <v>700</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3513513513513513</v>
+        <v>0.429</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4416881708108108</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="13">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1336,55 +1336,55 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>570</v>
+        <v>617.5</v>
       </c>
       <c r="F13" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="G13" t="n">
-        <v>0.25442</v>
+        <v>0.284</v>
       </c>
       <c r="H13" t="n">
-        <v>0.20111</v>
+        <v>0.25</v>
       </c>
       <c r="I13" t="n">
-        <v>0.34243</v>
+        <v>0.378</v>
       </c>
       <c r="J13" t="n">
-        <v>0.29991</v>
+        <v>0.354</v>
       </c>
       <c r="K13" t="n">
-        <v>0.31958</v>
+        <v>0.652</v>
       </c>
       <c r="L13" t="n">
-        <v>0.30625</v>
+        <v>0.643</v>
       </c>
       <c r="M13" t="n">
-        <v>4.3</v>
+        <v>10.3</v>
       </c>
       <c r="N13" t="n">
-        <v>5.8</v>
+        <v>13.8</v>
       </c>
       <c r="O13" t="n">
-        <v>2.65</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>10.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="R13" t="n">
-        <v>147.5</v>
+        <v>200</v>
       </c>
       <c r="S13" t="n">
-        <v>352.5</v>
+        <v>550</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4184397163120567</v>
+        <v>0.364</v>
       </c>
       <c r="U13" t="n">
-        <v>0.4382732997872341</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1403,59 +1403,59 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>260130</t>
+          <t>260206</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>937.5</v>
+        <v>335</v>
       </c>
       <c r="F14" t="n">
-        <v>932.5</v>
+        <v>330</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.28966</v>
+        <v>-0.256</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.25611</v>
+        <v>-0.223</v>
       </c>
       <c r="I14" t="n">
-        <v>0.64427</v>
+        <v>0.28</v>
       </c>
       <c r="J14" t="n">
-        <v>0.60611</v>
+        <v>0.26</v>
       </c>
       <c r="K14" t="n">
-        <v>0.25625</v>
+        <v>0.581</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2586</v>
+        <v>0.582</v>
       </c>
       <c r="M14" t="n">
-        <v>8.25</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="N14" t="n">
-        <v>9.75</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>7.25</v>
+        <v>6.5</v>
       </c>
       <c r="P14" t="n">
-        <v>8.15</v>
+        <v>7.45</v>
       </c>
       <c r="Q14" t="n">
         <v>500</v>
       </c>
       <c r="R14" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="S14" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3513513513513513</v>
+        <v>0.389</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4250551908108107</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="15">
@@ -1481,25 +1481,25 @@
         <v>615</v>
       </c>
       <c r="F15" t="n">
-        <v>625</v>
+        <v>622.5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.29325</v>
+        <v>0.293</v>
       </c>
       <c r="H15" t="n">
-        <v>0.25</v>
+        <v>0.259</v>
       </c>
       <c r="I15" t="n">
-        <v>0.38323</v>
+        <v>0.383</v>
       </c>
       <c r="J15" t="n">
-        <v>0.35393</v>
+        <v>0.361</v>
       </c>
       <c r="K15" t="n">
-        <v>0.64594</v>
+        <v>0.646</v>
       </c>
       <c r="L15" t="n">
-        <v>0.64347</v>
+        <v>0.641</v>
       </c>
       <c r="M15" t="n">
         <v>11.5</v>
@@ -1508,25 +1508,25 @@
         <v>13.4</v>
       </c>
       <c r="O15" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P15" t="n">
-        <v>10.9</v>
+        <v>12.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="R15" t="n">
-        <v>239.9999999999999</v>
+        <v>194.9999999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>760.0000000000001</v>
+        <v>555</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3157894736842103</v>
+        <v>0.351</v>
       </c>
       <c r="U15" t="n">
-        <v>0.4203510442105262</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="16">
@@ -1535,12 +1535,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>INTU</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1549,55 +1549,55 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>342.5</v>
+        <v>570</v>
       </c>
       <c r="F16" t="n">
-        <v>335</v>
+        <v>575</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.28013</v>
+        <v>0.254</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.22002</v>
+        <v>0.201</v>
       </c>
       <c r="I16" t="n">
-        <v>0.23917</v>
+        <v>0.342</v>
       </c>
       <c r="J16" t="n">
-        <v>0.21034</v>
+        <v>0.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.56974</v>
+        <v>0.32</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5773200000000001</v>
+        <v>0.306</v>
       </c>
       <c r="M16" t="n">
-        <v>7.3</v>
+        <v>4.3</v>
       </c>
       <c r="N16" t="n">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="O16" t="n">
-        <v>5.3</v>
+        <v>2.65</v>
       </c>
       <c r="P16" t="n">
-        <v>5.65</v>
+        <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="R16" t="n">
-        <v>197.5</v>
+        <v>147.5</v>
       </c>
       <c r="S16" t="n">
-        <v>552.5</v>
+        <v>352.5</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3574660633484162</v>
+        <v>0.418</v>
       </c>
       <c r="U16" t="n">
-        <v>0.4178073780090498</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="17">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1620,55 +1620,55 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>310</v>
+        <v>937.5</v>
       </c>
       <c r="F17" t="n">
-        <v>305</v>
+        <v>932.5</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.26971</v>
+        <v>-0.29</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.21802</v>
+        <v>-0.256</v>
       </c>
       <c r="I17" t="n">
-        <v>0.21154</v>
+        <v>0.644</v>
       </c>
       <c r="J17" t="n">
-        <v>0.18856</v>
+        <v>0.606</v>
       </c>
       <c r="K17" t="n">
-        <v>0.49304</v>
+        <v>0.256</v>
       </c>
       <c r="L17" t="n">
-        <v>0.49539</v>
+        <v>0.259</v>
       </c>
       <c r="M17" t="n">
-        <v>5.3</v>
+        <v>8.25</v>
       </c>
       <c r="N17" t="n">
-        <v>5.65</v>
+        <v>9.75</v>
       </c>
       <c r="O17" t="n">
-        <v>4.05</v>
+        <v>7.25</v>
       </c>
       <c r="P17" t="n">
-        <v>4.25</v>
+        <v>8.15</v>
       </c>
       <c r="Q17" t="n">
         <v>500</v>
       </c>
       <c r="R17" t="n">
-        <v>132.4999999999999</v>
+        <v>130</v>
       </c>
       <c r="S17" t="n">
-        <v>367.5000000000001</v>
+        <v>370</v>
       </c>
       <c r="T17" t="n">
-        <v>0.3605442176870746</v>
+        <v>0.351</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4071642406122448</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="18">
@@ -1687,59 +1687,59 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>260130</t>
+          <t>260206</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>337.5</v>
+        <v>340</v>
       </c>
       <c r="F18" t="n">
-        <v>332.5</v>
+        <v>330</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.24159</v>
+        <v>-0.288</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2037</v>
+        <v>-0.223</v>
       </c>
       <c r="I18" t="n">
-        <v>0.22162</v>
+        <v>0.297</v>
       </c>
       <c r="J18" t="n">
-        <v>0.20106</v>
+        <v>0.26</v>
       </c>
       <c r="K18" t="n">
-        <v>0.58238</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>0.58532</v>
+        <v>0.582</v>
       </c>
       <c r="M18" t="n">
-        <v>5.8</v>
+        <v>9.25</v>
       </c>
       <c r="N18" t="n">
-        <v>6.7</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P18" t="n">
-        <v>5.3</v>
+        <v>7.45</v>
       </c>
       <c r="Q18" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="R18" t="n">
-        <v>122.5</v>
+        <v>262.5</v>
       </c>
       <c r="S18" t="n">
-        <v>377.5</v>
+        <v>737.5</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3245033112582781</v>
+        <v>0.356</v>
       </c>
       <c r="U18" t="n">
-        <v>0.4025025167549668</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="19">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1762,55 +1762,55 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>340</v>
+        <v>615</v>
       </c>
       <c r="F19" t="n">
-        <v>335</v>
+        <v>625</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.25869</v>
+        <v>0.293</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.22002</v>
+        <v>0.25</v>
       </c>
       <c r="I19" t="n">
-        <v>0.22981</v>
+        <v>0.383</v>
       </c>
       <c r="J19" t="n">
-        <v>0.21034</v>
+        <v>0.354</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5705</v>
+        <v>0.646</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5773200000000001</v>
+        <v>0.643</v>
       </c>
       <c r="M19" t="n">
-        <v>6.6</v>
+        <v>11.5</v>
       </c>
       <c r="N19" t="n">
-        <v>6.8</v>
+        <v>13.4</v>
       </c>
       <c r="O19" t="n">
-        <v>5.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>5.65</v>
+        <v>10.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="R19" t="n">
-        <v>122.5</v>
+        <v>239.9999999999999</v>
       </c>
       <c r="S19" t="n">
-        <v>377.5</v>
+        <v>760.0000000000001</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3245033112582781</v>
+        <v>0.316</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3997374467549669</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="20">
@@ -1836,25 +1836,25 @@
         <v>342.5</v>
       </c>
       <c r="F20" t="n">
-        <v>332.5</v>
+        <v>335</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.28013</v>
+        <v>-0.28</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.2037</v>
+        <v>-0.22</v>
       </c>
       <c r="I20" t="n">
-        <v>0.23917</v>
+        <v>0.239</v>
       </c>
       <c r="J20" t="n">
-        <v>0.20106</v>
+        <v>0.21</v>
       </c>
       <c r="K20" t="n">
-        <v>0.56974</v>
+        <v>0.57</v>
       </c>
       <c r="L20" t="n">
-        <v>0.58532</v>
+        <v>0.577</v>
       </c>
       <c r="M20" t="n">
         <v>7.3</v>
@@ -1863,25 +1863,25 @@
         <v>7.6</v>
       </c>
       <c r="O20" t="n">
-        <v>4.75</v>
+        <v>5.3</v>
       </c>
       <c r="P20" t="n">
-        <v>5.3</v>
+        <v>5.65</v>
       </c>
       <c r="Q20" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="R20" t="n">
-        <v>242.4999999999999</v>
+        <v>197.5</v>
       </c>
       <c r="S20" t="n">
-        <v>757.5000000000001</v>
+        <v>552.5</v>
       </c>
       <c r="T20" t="n">
-        <v>0.32013201320132</v>
+        <v>0.357</v>
       </c>
       <c r="U20" t="n">
-        <v>0.395406947920792</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="21">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1904,55 +1904,55 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>342.5</v>
+        <v>310</v>
       </c>
       <c r="F21" t="n">
-        <v>337.5</v>
+        <v>305</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.28013</v>
+        <v>-0.27</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.24159</v>
+        <v>-0.218</v>
       </c>
       <c r="I21" t="n">
-        <v>0.23917</v>
+        <v>0.212</v>
       </c>
       <c r="J21" t="n">
-        <v>0.22162</v>
+        <v>0.189</v>
       </c>
       <c r="K21" t="n">
-        <v>0.56974</v>
+        <v>0.493</v>
       </c>
       <c r="L21" t="n">
-        <v>0.58238</v>
+        <v>0.495</v>
       </c>
       <c r="M21" t="n">
-        <v>7.3</v>
+        <v>5.3</v>
       </c>
       <c r="N21" t="n">
-        <v>7.6</v>
+        <v>5.65</v>
       </c>
       <c r="O21" t="n">
-        <v>5.8</v>
+        <v>4.05</v>
       </c>
       <c r="P21" t="n">
-        <v>6.7</v>
+        <v>4.25</v>
       </c>
       <c r="Q21" t="n">
         <v>500</v>
       </c>
       <c r="R21" t="n">
-        <v>119.9999999999999</v>
+        <v>132.4999999999999</v>
       </c>
       <c r="S21" t="n">
-        <v>380.0000000000001</v>
+        <v>367.5000000000001</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3157894736842103</v>
+        <v>0.361</v>
       </c>
       <c r="U21" t="n">
-        <v>0.3928014242105261</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="22">
@@ -1961,69 +1961,69 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>260130</t>
+          <t>260206</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>475</v>
+        <v>340</v>
       </c>
       <c r="F22" t="n">
-        <v>477.5</v>
+        <v>335</v>
       </c>
       <c r="G22" t="n">
-        <v>0.27292</v>
+        <v>-0.288</v>
       </c>
       <c r="H22" t="n">
-        <v>0.24757</v>
+        <v>-0.256</v>
       </c>
       <c r="I22" t="n">
-        <v>0.29548</v>
+        <v>0.297</v>
       </c>
       <c r="J22" t="n">
-        <v>0.28099</v>
+        <v>0.28</v>
       </c>
       <c r="K22" t="n">
-        <v>0.35281</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>0.35178</v>
+        <v>0.581</v>
       </c>
       <c r="M22" t="n">
-        <v>4.8</v>
+        <v>9.25</v>
       </c>
       <c r="N22" t="n">
-        <v>5.35</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>4.2</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>4.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q22" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="R22" t="n">
-        <v>62.49999999999991</v>
+        <v>122.5</v>
       </c>
       <c r="S22" t="n">
-        <v>187.5000000000001</v>
+        <v>377.5</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3333333333333327</v>
+        <v>0.325</v>
       </c>
       <c r="U22" t="n">
-        <v>0.3829242099999996</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="23">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2042,59 +2042,59 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>260130</t>
+          <t>260206</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>340</v>
+        <v>925</v>
       </c>
       <c r="F23" t="n">
-        <v>332.5</v>
+        <v>920</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.25869</v>
+        <v>-0.254</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2037</v>
+        <v>-0.23</v>
       </c>
       <c r="I23" t="n">
-        <v>0.22981</v>
+        <v>0.739</v>
       </c>
       <c r="J23" t="n">
-        <v>0.20106</v>
+        <v>0.701</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5705</v>
+        <v>0.268</v>
       </c>
       <c r="L23" t="n">
-        <v>0.58532</v>
+        <v>0.27</v>
       </c>
       <c r="M23" t="n">
-        <v>6.6</v>
+        <v>8.65</v>
       </c>
       <c r="N23" t="n">
-        <v>6.8</v>
+        <v>10.8</v>
       </c>
       <c r="O23" t="n">
-        <v>4.75</v>
+        <v>7.65</v>
       </c>
       <c r="P23" t="n">
-        <v>5.3</v>
+        <v>9.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="R23" t="n">
-        <v>167.4999999999999</v>
+        <v>110.0000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>582.5000000000001</v>
+        <v>389.9999999999999</v>
       </c>
       <c r="T23" t="n">
-        <v>0.2875536480686693</v>
+        <v>0.282</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3775676488412016</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="24">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2117,40 +2117,40 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>472.5</v>
+        <v>337.5</v>
       </c>
       <c r="F24" t="n">
-        <v>477.5</v>
+        <v>332.5</v>
       </c>
       <c r="G24" t="n">
-        <v>0.29782</v>
+        <v>-0.242</v>
       </c>
       <c r="H24" t="n">
-        <v>0.24757</v>
+        <v>-0.204</v>
       </c>
       <c r="I24" t="n">
-        <v>0.30802</v>
+        <v>0.222</v>
       </c>
       <c r="J24" t="n">
-        <v>0.28099</v>
+        <v>0.201</v>
       </c>
       <c r="K24" t="n">
-        <v>0.351</v>
+        <v>0.582</v>
       </c>
       <c r="L24" t="n">
-        <v>0.35178</v>
+        <v>0.585</v>
       </c>
       <c r="M24" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="N24" t="n">
-        <v>6.25</v>
+        <v>6.7</v>
       </c>
       <c r="O24" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P24" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="Q24" t="n">
         <v>500</v>
@@ -2162,10 +2162,10 @@
         <v>377.5</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3245033112582781</v>
+        <v>0.325</v>
       </c>
       <c r="U24" t="n">
-        <v>0.3757415867549668</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="25">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2188,55 +2188,55 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="F25" t="n">
-        <v>482.5</v>
+        <v>335</v>
       </c>
       <c r="G25" t="n">
-        <v>0.22716</v>
+        <v>-0.259</v>
       </c>
       <c r="H25" t="n">
-        <v>0.20219</v>
+        <v>-0.22</v>
       </c>
       <c r="I25" t="n">
-        <v>0.26802</v>
+        <v>0.23</v>
       </c>
       <c r="J25" t="n">
-        <v>0.25047</v>
+        <v>0.21</v>
       </c>
       <c r="K25" t="n">
-        <v>0.35597</v>
+        <v>0.571</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3516</v>
+        <v>0.577</v>
       </c>
       <c r="M25" t="n">
-        <v>3.75</v>
+        <v>6.6</v>
       </c>
       <c r="N25" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="O25" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="P25" t="n">
-        <v>3.65</v>
+        <v>5.65</v>
       </c>
       <c r="Q25" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="R25" t="n">
-        <v>60.00000000000006</v>
+        <v>122.5</v>
       </c>
       <c r="S25" t="n">
-        <v>189.9999999999999</v>
+        <v>377.5</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3157894736842109</v>
+        <v>0.325</v>
       </c>
       <c r="U25" t="n">
-        <v>0.3752520742105265</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26">
@@ -2245,69 +2245,69 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>INTU</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>260130</t>
+          <t>260206</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>935</v>
+        <v>580</v>
       </c>
       <c r="F26" t="n">
-        <v>925</v>
+        <v>585</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.27617</v>
+        <v>0.238</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.21842</v>
+        <v>0.2</v>
       </c>
       <c r="I26" t="n">
-        <v>0.62969</v>
+        <v>0.404</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5553399999999999</v>
+        <v>0.366</v>
       </c>
       <c r="K26" t="n">
-        <v>0.26254</v>
+        <v>0.333</v>
       </c>
       <c r="L26" t="n">
-        <v>0.27189</v>
+        <v>0.326</v>
       </c>
       <c r="M26" t="n">
-        <v>7.95</v>
+        <v>4.6</v>
       </c>
       <c r="N26" t="n">
-        <v>9.35</v>
+        <v>7.1</v>
       </c>
       <c r="O26" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="P26" t="n">
-        <v>7.45</v>
+        <v>5.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="R26" t="n">
-        <v>207.5</v>
+        <v>125</v>
       </c>
       <c r="S26" t="n">
-        <v>792.5</v>
+        <v>375</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2618296529968455</v>
+        <v>0.333</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3720337717981073</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="27">
@@ -2316,12 +2316,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2330,55 +2330,55 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>472.5</v>
+        <v>342.5</v>
       </c>
       <c r="F27" t="n">
-        <v>475</v>
+        <v>332.5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.29782</v>
+        <v>-0.28</v>
       </c>
       <c r="H27" t="n">
-        <v>0.27292</v>
+        <v>-0.204</v>
       </c>
       <c r="I27" t="n">
-        <v>0.30802</v>
+        <v>0.239</v>
       </c>
       <c r="J27" t="n">
-        <v>0.29548</v>
+        <v>0.201</v>
       </c>
       <c r="K27" t="n">
-        <v>0.351</v>
+        <v>0.57</v>
       </c>
       <c r="L27" t="n">
-        <v>0.35281</v>
+        <v>0.585</v>
       </c>
       <c r="M27" t="n">
-        <v>5.1</v>
+        <v>7.3</v>
       </c>
       <c r="N27" t="n">
-        <v>6.25</v>
+        <v>7.6</v>
       </c>
       <c r="O27" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="P27" t="n">
-        <v>5.35</v>
+        <v>5.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="R27" t="n">
-        <v>60.00000000000006</v>
+        <v>242.4999999999999</v>
       </c>
       <c r="S27" t="n">
-        <v>189.9999999999999</v>
+        <v>757.5000000000001</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3157894736842109</v>
+        <v>0.32</v>
       </c>
       <c r="U27" t="n">
-        <v>0.3705132842105265</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="28">
@@ -2387,69 +2387,69 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>260130</t>
+          <t>260206</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>180</v>
+        <v>925</v>
       </c>
       <c r="F28" t="n">
-        <v>182.5</v>
+        <v>915</v>
       </c>
       <c r="G28" t="n">
-        <v>0.29801</v>
+        <v>-0.254</v>
       </c>
       <c r="H28" t="n">
-        <v>0.24533</v>
+        <v>-0.207</v>
       </c>
       <c r="I28" t="n">
-        <v>0.11601</v>
+        <v>0.739</v>
       </c>
       <c r="J28" t="n">
-        <v>0.10529</v>
+        <v>0.66</v>
       </c>
       <c r="K28" t="n">
-        <v>0.44654</v>
+        <v>0.268</v>
       </c>
       <c r="L28" t="n">
-        <v>0.44578</v>
+        <v>0.273</v>
       </c>
       <c r="M28" t="n">
-        <v>2.68</v>
+        <v>8.65</v>
       </c>
       <c r="N28" t="n">
-        <v>2.71</v>
+        <v>10.8</v>
       </c>
       <c r="O28" t="n">
-        <v>2.06</v>
+        <v>6.8</v>
       </c>
       <c r="P28" t="n">
-        <v>2.1</v>
+        <v>8.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="R28" t="n">
-        <v>61.50000000000002</v>
+        <v>212.5000000000002</v>
       </c>
       <c r="S28" t="n">
-        <v>188.5</v>
+        <v>787.4999999999998</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3262599469496023</v>
+        <v>0.27</v>
       </c>
       <c r="U28" t="n">
-        <v>0.3639397881697614</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="29">
@@ -2458,12 +2458,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2472,55 +2472,55 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>622.5</v>
+        <v>342.5</v>
       </c>
       <c r="F29" t="n">
-        <v>625</v>
+        <v>337.5</v>
       </c>
       <c r="G29" t="n">
-        <v>0.25923</v>
+        <v>-0.28</v>
       </c>
       <c r="H29" t="n">
-        <v>0.25</v>
+        <v>-0.242</v>
       </c>
       <c r="I29" t="n">
-        <v>0.36072</v>
+        <v>0.239</v>
       </c>
       <c r="J29" t="n">
-        <v>0.35393</v>
+        <v>0.222</v>
       </c>
       <c r="K29" t="n">
-        <v>0.64095</v>
+        <v>0.57</v>
       </c>
       <c r="L29" t="n">
-        <v>0.64347</v>
+        <v>0.582</v>
       </c>
       <c r="M29" t="n">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="N29" t="n">
-        <v>12.2</v>
+        <v>7.6</v>
       </c>
       <c r="O29" t="n">
-        <v>9.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="P29" t="n">
-        <v>10.9</v>
+        <v>6.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="R29" t="n">
-        <v>44.99999999999993</v>
+        <v>119.9999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>205.0000000000001</v>
+        <v>380.0000000000001</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2195121951219508</v>
+        <v>0.316</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3634518370731705</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="30">
@@ -2529,69 +2529,69 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>260130</t>
+          <t>260206</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>620</v>
+        <v>310</v>
       </c>
       <c r="F30" t="n">
-        <v>622.5</v>
+        <v>305</v>
       </c>
       <c r="G30" t="n">
-        <v>0.26857</v>
+        <v>-0.295</v>
       </c>
       <c r="H30" t="n">
-        <v>0.25923</v>
+        <v>-0.253</v>
       </c>
       <c r="I30" t="n">
-        <v>0.36728</v>
+        <v>0.271</v>
       </c>
       <c r="J30" t="n">
-        <v>0.36072</v>
+        <v>0.251</v>
       </c>
       <c r="K30" t="n">
-        <v>0.63793</v>
+        <v>0.479</v>
       </c>
       <c r="L30" t="n">
-        <v>0.64095</v>
+        <v>0.492</v>
       </c>
       <c r="M30" t="n">
-        <v>10</v>
+        <v>6.1</v>
       </c>
       <c r="N30" t="n">
-        <v>11.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O30" t="n">
-        <v>8.800000000000001</v>
+        <v>4.65</v>
       </c>
       <c r="P30" t="n">
-        <v>12.2</v>
+        <v>7.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="R30" t="n">
-        <v>44.99999999999993</v>
+        <v>122.5000000000001</v>
       </c>
       <c r="S30" t="n">
-        <v>205.0000000000001</v>
+        <v>377.4999999999999</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2195121951219508</v>
+        <v>0.325</v>
       </c>
       <c r="U30" t="n">
-        <v>0.3626804370731705</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="31">
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>AEM</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2614,55 +2614,55 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>620</v>
+        <v>190</v>
       </c>
       <c r="F31" t="n">
-        <v>625</v>
+        <v>187.5</v>
       </c>
       <c r="G31" t="n">
-        <v>0.26857</v>
+        <v>-0.288</v>
       </c>
       <c r="H31" t="n">
-        <v>0.25</v>
+        <v>-0.233</v>
       </c>
       <c r="I31" t="n">
-        <v>0.36728</v>
+        <v>0.132</v>
       </c>
       <c r="J31" t="n">
-        <v>0.35393</v>
+        <v>0.118</v>
       </c>
       <c r="K31" t="n">
-        <v>0.63793</v>
+        <v>0.389</v>
       </c>
       <c r="L31" t="n">
-        <v>0.64347</v>
+        <v>0.392</v>
       </c>
       <c r="M31" t="n">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="N31" t="n">
-        <v>11.9</v>
+        <v>2.95</v>
       </c>
       <c r="O31" t="n">
-        <v>9.199999999999999</v>
+        <v>2.05</v>
       </c>
       <c r="P31" t="n">
-        <v>10.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="R31" t="n">
-        <v>89.99999999999986</v>
+        <v>67.50000000000003</v>
       </c>
       <c r="S31" t="n">
-        <v>410.0000000000001</v>
+        <v>182.5</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2195121951219508</v>
+        <v>0.37</v>
       </c>
       <c r="U31" t="n">
-        <v>0.3626804370731705</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="32">
@@ -2681,59 +2681,59 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>260130</t>
+          <t>260206</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>937.5</v>
+        <v>920</v>
       </c>
       <c r="F32" t="n">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.28966</v>
+        <v>-0.23</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.21842</v>
+        <v>-0.207</v>
       </c>
       <c r="I32" t="n">
-        <v>0.64427</v>
+        <v>0.701</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5553399999999999</v>
+        <v>0.66</v>
       </c>
       <c r="K32" t="n">
-        <v>0.25625</v>
+        <v>0.27</v>
       </c>
       <c r="L32" t="n">
-        <v>0.27189</v>
+        <v>0.273</v>
       </c>
       <c r="M32" t="n">
-        <v>8.25</v>
+        <v>7.65</v>
       </c>
       <c r="N32" t="n">
-        <v>9.75</v>
+        <v>9.6</v>
       </c>
       <c r="O32" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="P32" t="n">
-        <v>7.45</v>
+        <v>8.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="R32" t="n">
-        <v>242.5</v>
+        <v>102.5</v>
       </c>
       <c r="S32" t="n">
-        <v>1007.5</v>
+        <v>397.5</v>
       </c>
       <c r="T32" t="n">
-        <v>0.2406947890818858</v>
+        <v>0.258</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3586612534491315</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="33">
@@ -2742,12 +2742,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2756,55 +2756,55 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>472.5</v>
+        <v>330</v>
       </c>
       <c r="F33" t="n">
-        <v>482.5</v>
+        <v>327.5</v>
       </c>
       <c r="G33" t="n">
-        <v>0.29782</v>
+        <v>-0.282</v>
       </c>
       <c r="H33" t="n">
-        <v>0.20219</v>
+        <v>-0.248</v>
       </c>
       <c r="I33" t="n">
-        <v>0.30802</v>
+        <v>0.227</v>
       </c>
       <c r="J33" t="n">
-        <v>0.25047</v>
+        <v>0.212</v>
       </c>
       <c r="K33" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>250</v>
+      </c>
+      <c r="R33" t="n">
+        <v>64.99999999999994</v>
+      </c>
+      <c r="S33" t="n">
+        <v>185.0000000000001</v>
+      </c>
+      <c r="T33" t="n">
         <v>0.351</v>
       </c>
-      <c r="L33" t="n">
-        <v>0.3516</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="O33" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R33" t="n">
-        <v>225</v>
-      </c>
-      <c r="S33" t="n">
-        <v>775</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.2903225806451613</v>
-      </c>
       <c r="U33" t="n">
-        <v>0.3552331483870967</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="34">
@@ -2813,69 +2813,69 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>260130</t>
+          <t>260206</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>475</v>
+        <v>930</v>
       </c>
       <c r="F34" t="n">
-        <v>482.5</v>
+        <v>915</v>
       </c>
       <c r="G34" t="n">
-        <v>0.27292</v>
+        <v>-0.277</v>
       </c>
       <c r="H34" t="n">
-        <v>0.20219</v>
+        <v>-0.207</v>
       </c>
       <c r="I34" t="n">
-        <v>0.29548</v>
+        <v>0.772</v>
       </c>
       <c r="J34" t="n">
-        <v>0.25047</v>
+        <v>0.66</v>
       </c>
       <c r="K34" t="n">
-        <v>0.35281</v>
+        <v>0.26</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3516</v>
+        <v>0.273</v>
       </c>
       <c r="M34" t="n">
-        <v>4.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N34" t="n">
-        <v>5.35</v>
+        <v>11.5</v>
       </c>
       <c r="O34" t="n">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="P34" t="n">
-        <v>3.65</v>
+        <v>8.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="R34" t="n">
-        <v>164.9999999999999</v>
+        <v>300</v>
       </c>
       <c r="S34" t="n">
-        <v>585</v>
+        <v>1200</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2820512820512819</v>
+        <v>0.25</v>
       </c>
       <c r="U34" t="n">
-        <v>0.3521549792307692</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="35">
@@ -2898,55 +2898,55 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>472.5</v>
+        <v>475</v>
       </c>
       <c r="F35" t="n">
-        <v>480</v>
+        <v>477.5</v>
       </c>
       <c r="G35" t="n">
-        <v>0.29782</v>
+        <v>0.273</v>
       </c>
       <c r="H35" t="n">
-        <v>0.22716</v>
+        <v>0.248</v>
       </c>
       <c r="I35" t="n">
-        <v>0.30802</v>
+        <v>0.295</v>
       </c>
       <c r="J35" t="n">
-        <v>0.26802</v>
+        <v>0.281</v>
       </c>
       <c r="K35" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="L35" t="n">
-        <v>0.35597</v>
+        <v>0.352</v>
       </c>
       <c r="M35" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="N35" t="n">
-        <v>6.25</v>
+        <v>5.35</v>
       </c>
       <c r="O35" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P35" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="Q35" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="R35" t="n">
-        <v>164.9999999999999</v>
+        <v>62.49999999999991</v>
       </c>
       <c r="S35" t="n">
-        <v>585</v>
+        <v>187.5000000000001</v>
       </c>
       <c r="T35" t="n">
-        <v>0.2820512820512819</v>
+        <v>0.333</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3502703692307692</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="36">
@@ -2955,69 +2955,69 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>260130</t>
+          <t>260206</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>615</v>
+        <v>930</v>
       </c>
       <c r="F36" t="n">
-        <v>617.5</v>
+        <v>920</v>
       </c>
       <c r="G36" t="n">
-        <v>0.29325</v>
+        <v>-0.277</v>
       </c>
       <c r="H36" t="n">
-        <v>0.28439</v>
+        <v>-0.23</v>
       </c>
       <c r="I36" t="n">
-        <v>0.38323</v>
+        <v>0.772</v>
       </c>
       <c r="J36" t="n">
-        <v>0.37774</v>
+        <v>0.701</v>
       </c>
       <c r="K36" t="n">
-        <v>0.64594</v>
+        <v>0.26</v>
       </c>
       <c r="L36" t="n">
-        <v>0.65163</v>
+        <v>0.27</v>
       </c>
       <c r="M36" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="N36" t="n">
         <v>11.5</v>
       </c>
-      <c r="N36" t="n">
-        <v>13.4</v>
-      </c>
       <c r="O36" t="n">
-        <v>10.3</v>
+        <v>7.65</v>
       </c>
       <c r="P36" t="n">
-        <v>13.8</v>
+        <v>9.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="R36" t="n">
-        <v>39.99999999999986</v>
+        <v>197.5</v>
       </c>
       <c r="S36" t="n">
-        <v>210.0000000000001</v>
+        <v>802.5</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1904761904761897</v>
+        <v>0.246</v>
       </c>
       <c r="U36" t="n">
-        <v>0.3451630742857138</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="37">
@@ -3026,12 +3026,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3040,55 +3040,55 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>565</v>
+        <v>340</v>
       </c>
       <c r="F37" t="n">
-        <v>575</v>
+        <v>332.5</v>
       </c>
       <c r="G37" t="n">
-        <v>0.29017</v>
+        <v>-0.259</v>
       </c>
       <c r="H37" t="n">
-        <v>0.20111</v>
+        <v>-0.204</v>
       </c>
       <c r="I37" t="n">
-        <v>0.36556</v>
+        <v>0.23</v>
       </c>
       <c r="J37" t="n">
-        <v>0.29991</v>
+        <v>0.201</v>
       </c>
       <c r="K37" t="n">
-        <v>0.30239</v>
+        <v>0.571</v>
       </c>
       <c r="L37" t="n">
-        <v>0.30625</v>
+        <v>0.585</v>
       </c>
       <c r="M37" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="N37" t="n">
         <v>6.8</v>
       </c>
       <c r="O37" t="n">
-        <v>2.65</v>
+        <v>4.75</v>
       </c>
       <c r="P37" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="R37" t="n">
-        <v>212.4999999999999</v>
+        <v>167.4999999999999</v>
       </c>
       <c r="S37" t="n">
-        <v>787.5000000000001</v>
+        <v>582.5000000000001</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2698412698412697</v>
+        <v>0.288</v>
       </c>
       <c r="U37" t="n">
-        <v>0.3451495019047618</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="38">
@@ -3097,12 +3097,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COP</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3111,55 +3111,55 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>95</v>
+        <v>472.5</v>
       </c>
       <c r="F38" t="n">
-        <v>94</v>
+        <v>477.5</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2722</v>
+        <v>0.298</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.21607</v>
+        <v>0.248</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06379</v>
+        <v>0.308</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05631</v>
+        <v>0.281</v>
       </c>
       <c r="K38" t="n">
-        <v>0.29315</v>
+        <v>0.351</v>
       </c>
       <c r="L38" t="n">
-        <v>0.29511</v>
+        <v>0.352</v>
       </c>
       <c r="M38" t="n">
-        <v>0.92</v>
+        <v>5.1</v>
       </c>
       <c r="N38" t="n">
-        <v>1.02</v>
+        <v>6.25</v>
       </c>
       <c r="O38" t="n">
-        <v>0.67</v>
+        <v>4.2</v>
       </c>
       <c r="P38" t="n">
-        <v>0.77</v>
+        <v>4.7</v>
       </c>
       <c r="Q38" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="R38" t="n">
-        <v>25</v>
+        <v>122.5</v>
       </c>
       <c r="S38" t="n">
-        <v>75</v>
+        <v>377.5</v>
       </c>
       <c r="T38" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.325</v>
       </c>
       <c r="U38" t="n">
-        <v>0.34427042</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="39">
@@ -3182,55 +3182,55 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="F39" t="n">
-        <v>480</v>
+        <v>482.5</v>
       </c>
       <c r="G39" t="n">
-        <v>0.27292</v>
+        <v>0.227</v>
       </c>
       <c r="H39" t="n">
-        <v>0.22716</v>
+        <v>0.202</v>
       </c>
       <c r="I39" t="n">
-        <v>0.29548</v>
+        <v>0.268</v>
       </c>
       <c r="J39" t="n">
-        <v>0.26802</v>
+        <v>0.25</v>
       </c>
       <c r="K39" t="n">
-        <v>0.35281</v>
+        <v>0.356</v>
       </c>
       <c r="L39" t="n">
-        <v>0.35597</v>
+        <v>0.352</v>
       </c>
       <c r="M39" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="N39" t="n">
-        <v>5.35</v>
+        <v>4.3</v>
       </c>
       <c r="O39" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P39" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="Q39" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="R39" t="n">
-        <v>104.9999999999999</v>
+        <v>60.00000000000006</v>
       </c>
       <c r="S39" t="n">
-        <v>395.0000000000001</v>
+        <v>189.9999999999999</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2658227848101262</v>
+        <v>0.316</v>
       </c>
       <c r="U39" t="n">
-        <v>0.3424178808860757</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="40">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3253,55 +3253,55 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F40" t="n">
-        <v>317.5</v>
+        <v>325</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.27246</v>
+        <v>-0.282</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.23107</v>
+        <v>-0.216</v>
       </c>
       <c r="I40" t="n">
-        <v>0.21463</v>
+        <v>0.227</v>
       </c>
       <c r="J40" t="n">
-        <v>0.19673</v>
+        <v>0.196</v>
       </c>
       <c r="K40" t="n">
-        <v>0.28327</v>
+        <v>0.357</v>
       </c>
       <c r="L40" t="n">
-        <v>0.28804</v>
+        <v>0.362</v>
       </c>
       <c r="M40" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N40" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O40" t="n">
-        <v>2.54</v>
+        <v>2.89</v>
       </c>
       <c r="P40" t="n">
-        <v>2.61</v>
+        <v>3.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="R40" t="n">
-        <v>57.50000000000001</v>
+        <v>125.5</v>
       </c>
       <c r="S40" t="n">
-        <v>192.5</v>
+        <v>374.5</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2987012987012988</v>
+        <v>0.335</v>
       </c>
       <c r="U40" t="n">
-        <v>0.3422042992207793</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="41">
@@ -3310,69 +3310,69 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>260130</t>
+          <t>260206</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>320</v>
+        <v>485</v>
       </c>
       <c r="F41" t="n">
-        <v>317.5</v>
+        <v>490</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.2645</v>
+        <v>0.243</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.22299</v>
+        <v>0.204</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2116</v>
+        <v>0.341</v>
       </c>
       <c r="J41" t="n">
-        <v>0.19295</v>
+        <v>0.308</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2806</v>
+        <v>0.362</v>
       </c>
       <c r="L41" t="n">
-        <v>0.28464</v>
+        <v>0.357</v>
       </c>
       <c r="M41" t="n">
-        <v>2.95</v>
+        <v>4.95</v>
       </c>
       <c r="N41" t="n">
-        <v>3.05</v>
+        <v>5.9</v>
       </c>
       <c r="O41" t="n">
-        <v>2.39</v>
+        <v>3.75</v>
       </c>
       <c r="P41" t="n">
-        <v>2.47</v>
+        <v>4.8</v>
       </c>
       <c r="Q41" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="R41" t="n">
-        <v>56.99999999999999</v>
+        <v>115</v>
       </c>
       <c r="S41" t="n">
-        <v>193</v>
+        <v>385</v>
       </c>
       <c r="T41" t="n">
-        <v>0.2953367875647668</v>
+        <v>0.299</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3404861725388601</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="42">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3395,55 +3395,55 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>335</v>
+        <v>935</v>
       </c>
       <c r="F42" t="n">
-        <v>332.5</v>
+        <v>925</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.22002</v>
+        <v>-0.276</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.2037</v>
+        <v>-0.218</v>
       </c>
       <c r="I42" t="n">
-        <v>0.21034</v>
+        <v>0.63</v>
       </c>
       <c r="J42" t="n">
-        <v>0.20106</v>
+        <v>0.555</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5773200000000001</v>
+        <v>0.263</v>
       </c>
       <c r="L42" t="n">
-        <v>0.58532</v>
+        <v>0.272</v>
       </c>
       <c r="M42" t="n">
-        <v>5.3</v>
+        <v>7.95</v>
       </c>
       <c r="N42" t="n">
-        <v>5.65</v>
+        <v>9.35</v>
       </c>
       <c r="O42" t="n">
-        <v>4.75</v>
+        <v>5.7</v>
       </c>
       <c r="P42" t="n">
-        <v>5.3</v>
+        <v>7.45</v>
       </c>
       <c r="Q42" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="R42" t="n">
-        <v>44.99999999999993</v>
+        <v>207.5</v>
       </c>
       <c r="S42" t="n">
-        <v>205.0000000000001</v>
+        <v>792.5</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2195121951219508</v>
+        <v>0.262</v>
       </c>
       <c r="U42" t="n">
-        <v>0.3402034370731705</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="43">
@@ -3466,55 +3466,55 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>477.5</v>
+        <v>472.5</v>
       </c>
       <c r="F43" t="n">
-        <v>482.5</v>
+        <v>475</v>
       </c>
       <c r="G43" t="n">
-        <v>0.24757</v>
+        <v>0.298</v>
       </c>
       <c r="H43" t="n">
-        <v>0.20219</v>
+        <v>0.273</v>
       </c>
       <c r="I43" t="n">
-        <v>0.28099</v>
+        <v>0.308</v>
       </c>
       <c r="J43" t="n">
-        <v>0.25047</v>
+        <v>0.295</v>
       </c>
       <c r="K43" t="n">
-        <v>0.35178</v>
+        <v>0.351</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3516</v>
+        <v>0.353</v>
       </c>
       <c r="M43" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="N43" t="n">
-        <v>4.7</v>
+        <v>6.25</v>
       </c>
       <c r="O43" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="P43" t="n">
-        <v>3.65</v>
+        <v>5.35</v>
       </c>
       <c r="Q43" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="R43" t="n">
-        <v>102.5</v>
+        <v>60.00000000000006</v>
       </c>
       <c r="S43" t="n">
-        <v>397.5</v>
+        <v>189.9999999999999</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2578616352201258</v>
+        <v>0.316</v>
       </c>
       <c r="U43" t="n">
-        <v>0.3389485811320755</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="44">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3537,55 +3537,55 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>340</v>
+        <v>327.5</v>
       </c>
       <c r="F44" t="n">
-        <v>337.5</v>
+        <v>325</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.25869</v>
+        <v>-0.248</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.24159</v>
+        <v>-0.216</v>
       </c>
       <c r="I44" t="n">
-        <v>0.22981</v>
+        <v>0.212</v>
       </c>
       <c r="J44" t="n">
-        <v>0.22162</v>
+        <v>0.196</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5705</v>
+        <v>0.36</v>
       </c>
       <c r="L44" t="n">
-        <v>0.58238</v>
+        <v>0.362</v>
       </c>
       <c r="M44" t="n">
-        <v>6.6</v>
+        <v>3.45</v>
       </c>
       <c r="N44" t="n">
-        <v>6.8</v>
+        <v>3.95</v>
       </c>
       <c r="O44" t="n">
-        <v>5.8</v>
+        <v>2.89</v>
       </c>
       <c r="P44" t="n">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q44" t="n">
         <v>250</v>
       </c>
       <c r="R44" t="n">
-        <v>44.99999999999993</v>
+        <v>60.50000000000004</v>
       </c>
       <c r="S44" t="n">
-        <v>205.0000000000001</v>
+        <v>189.4999999999999</v>
       </c>
       <c r="T44" t="n">
-        <v>0.2195121951219508</v>
+        <v>0.319</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3367427770731705</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="45">
@@ -3594,12 +3594,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3608,55 +3608,55 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>932.5</v>
+        <v>622.5</v>
       </c>
       <c r="F45" t="n">
-        <v>925</v>
+        <v>625</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.25611</v>
+        <v>0.259</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.21842</v>
+        <v>0.25</v>
       </c>
       <c r="I45" t="n">
-        <v>0.60611</v>
+        <v>0.361</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5553399999999999</v>
+        <v>0.354</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2586</v>
+        <v>0.641</v>
       </c>
       <c r="L45" t="n">
-        <v>0.27189</v>
+        <v>0.643</v>
       </c>
       <c r="M45" t="n">
-        <v>7.25</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="N45" t="n">
-        <v>8.15</v>
+        <v>12.2</v>
       </c>
       <c r="O45" t="n">
-        <v>5.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P45" t="n">
-        <v>7.45</v>
+        <v>10.9</v>
       </c>
       <c r="Q45" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="R45" t="n">
-        <v>112.5</v>
+        <v>44.99999999999993</v>
       </c>
       <c r="S45" t="n">
-        <v>637.5</v>
+        <v>205.0000000000001</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.22</v>
       </c>
       <c r="U45" t="n">
-        <v>0.3198261529411764</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="46">
@@ -3665,12 +3665,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3679,55 +3679,55 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>937.5</v>
+        <v>180</v>
       </c>
       <c r="F46" t="n">
-        <v>935</v>
+        <v>182.5</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.28966</v>
+        <v>0.298</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.27617</v>
+        <v>0.245</v>
       </c>
       <c r="I46" t="n">
-        <v>0.64427</v>
+        <v>0.116</v>
       </c>
       <c r="J46" t="n">
-        <v>0.62969</v>
+        <v>0.105</v>
       </c>
       <c r="K46" t="n">
-        <v>0.25625</v>
+        <v>0.447</v>
       </c>
       <c r="L46" t="n">
-        <v>0.26254</v>
+        <v>0.446</v>
       </c>
       <c r="M46" t="n">
-        <v>8.25</v>
+        <v>2.68</v>
       </c>
       <c r="N46" t="n">
-        <v>9.75</v>
+        <v>2.71</v>
       </c>
       <c r="O46" t="n">
-        <v>7.95</v>
+        <v>2.06</v>
       </c>
       <c r="P46" t="n">
-        <v>9.35</v>
+        <v>2.1</v>
       </c>
       <c r="Q46" t="n">
         <v>250</v>
       </c>
       <c r="R46" t="n">
-        <v>34.99999999999996</v>
+        <v>61.50000000000002</v>
       </c>
       <c r="S46" t="n">
-        <v>215</v>
+        <v>188.5</v>
       </c>
       <c r="T46" t="n">
-        <v>0.1627906976744184</v>
+        <v>0.326</v>
       </c>
       <c r="U46" t="n">
-        <v>0.311918798604651</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="47">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3750,55 +3750,55 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>477.5</v>
+        <v>620</v>
       </c>
       <c r="F47" t="n">
-        <v>480</v>
+        <v>625</v>
       </c>
       <c r="G47" t="n">
-        <v>0.24757</v>
+        <v>0.269</v>
       </c>
       <c r="H47" t="n">
-        <v>0.22716</v>
+        <v>0.25</v>
       </c>
       <c r="I47" t="n">
-        <v>0.28099</v>
+        <v>0.367</v>
       </c>
       <c r="J47" t="n">
-        <v>0.26802</v>
+        <v>0.354</v>
       </c>
       <c r="K47" t="n">
-        <v>0.35178</v>
+        <v>0.638</v>
       </c>
       <c r="L47" t="n">
-        <v>0.35597</v>
+        <v>0.643</v>
       </c>
       <c r="M47" t="n">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="N47" t="n">
-        <v>4.7</v>
+        <v>11.9</v>
       </c>
       <c r="O47" t="n">
-        <v>3.75</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P47" t="n">
-        <v>4.3</v>
+        <v>10.9</v>
       </c>
       <c r="Q47" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="R47" t="n">
-        <v>42.49999999999999</v>
+        <v>89.99999999999986</v>
       </c>
       <c r="S47" t="n">
-        <v>207.5</v>
+        <v>410.0000000000001</v>
       </c>
       <c r="T47" t="n">
-        <v>0.2048192771084337</v>
+        <v>0.22</v>
       </c>
       <c r="U47" t="n">
-        <v>0.3071231662650602</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="48">
@@ -3807,69 +3807,1773 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>620</v>
+      </c>
+      <c r="F48" t="n">
+        <v>622.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="M48" t="n">
+        <v>10</v>
+      </c>
+      <c r="N48" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="O48" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="P48" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>250</v>
+      </c>
+      <c r="R48" t="n">
+        <v>44.99999999999993</v>
+      </c>
+      <c r="S48" t="n">
+        <v>205.0000000000001</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.363</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>260206</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>930</v>
+      </c>
+      <c r="F49" t="n">
+        <v>925</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.277</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.254</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="M49" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="N49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O49" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="P49" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>500</v>
+      </c>
+      <c r="R49" t="n">
+        <v>87.49999999999983</v>
+      </c>
+      <c r="S49" t="n">
+        <v>412.5000000000002</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>937.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>925</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.218</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="M50" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="N50" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O50" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="P50" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1250</v>
+      </c>
+      <c r="R50" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1007.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.359</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>472.5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R51" t="n">
+        <v>225</v>
+      </c>
+      <c r="S51" t="n">
+        <v>775</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.355</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>475</v>
+      </c>
+      <c r="F52" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="N52" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="O52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>750</v>
+      </c>
+      <c r="R52" t="n">
+        <v>164.9999999999999</v>
+      </c>
+      <c r="S52" t="n">
+        <v>585</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.352</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>472.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>480</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="O53" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>750</v>
+      </c>
+      <c r="R53" t="n">
+        <v>164.9999999999999</v>
+      </c>
+      <c r="S53" t="n">
+        <v>585</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SCCO</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>170</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.269</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.219</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>250</v>
+      </c>
+      <c r="R54" t="n">
+        <v>57.50000000000001</v>
+      </c>
+      <c r="S54" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>260206</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>480</v>
+      </c>
+      <c r="F55" t="n">
+        <v>490</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="N55" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R55" t="n">
+        <v>207.4999999999999</v>
+      </c>
+      <c r="S55" t="n">
+        <v>792.5</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>INTU</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>565</v>
+      </c>
+      <c r="F56" t="n">
+        <v>575</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R56" t="n">
+        <v>212.4999999999999</v>
+      </c>
+      <c r="S56" t="n">
+        <v>787.5000000000001</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.345</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>615</v>
+      </c>
+      <c r="F57" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="M57" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="N57" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="O57" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="P57" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>250</v>
+      </c>
+      <c r="R57" t="n">
+        <v>39.99999999999986</v>
+      </c>
+      <c r="S57" t="n">
+        <v>210.0000000000001</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.345</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>COP</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>95</v>
+      </c>
+      <c r="F58" t="n">
+        <v>94</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.272</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-0.216</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>100</v>
+      </c>
+      <c r="R58" t="n">
+        <v>25</v>
+      </c>
+      <c r="S58" t="n">
+        <v>75</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>320</v>
+      </c>
+      <c r="F59" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.272</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.231</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>250</v>
+      </c>
+      <c r="R59" t="n">
+        <v>57.50000000000001</v>
+      </c>
+      <c r="S59" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.342</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>475</v>
+      </c>
+      <c r="F60" t="n">
+        <v>480</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>500</v>
+      </c>
+      <c r="R60" t="n">
+        <v>104.9999999999999</v>
+      </c>
+      <c r="S60" t="n">
+        <v>395.0000000000001</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.342</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>320</v>
+      </c>
+      <c r="F61" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.265</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-0.223</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>250</v>
+      </c>
+      <c r="R61" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="S61" t="n">
+        <v>193</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>335</v>
+      </c>
+      <c r="F62" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.204</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N62" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="O62" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>250</v>
+      </c>
+      <c r="R62" t="n">
+        <v>44.99999999999993</v>
+      </c>
+      <c r="S62" t="n">
+        <v>205.0000000000001</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>500</v>
+      </c>
+      <c r="R63" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>397.5</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>340</v>
+      </c>
+      <c r="F64" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.259</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.242</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="M64" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O64" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="P64" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>250</v>
+      </c>
+      <c r="R64" t="n">
+        <v>44.99999999999993</v>
+      </c>
+      <c r="S64" t="n">
+        <v>205.0000000000001</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.337</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ADBE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>260206</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>310</v>
+      </c>
+      <c r="F65" t="n">
+        <v>315</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>500</v>
+      </c>
+      <c r="R65" t="n">
+        <v>108</v>
+      </c>
+      <c r="S65" t="n">
+        <v>392</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>260206</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>480</v>
+      </c>
+      <c r="F66" t="n">
+        <v>485</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="O66" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>500</v>
+      </c>
+      <c r="R66" t="n">
+        <v>92.49999999999989</v>
+      </c>
+      <c r="S66" t="n">
+        <v>407.5000000000001</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.328</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>INTU</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>260206</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>575</v>
+      </c>
+      <c r="F67" t="n">
+        <v>585</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R67" t="n">
+        <v>175</v>
+      </c>
+      <c r="S67" t="n">
+        <v>825</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>932.5</v>
+      </c>
+      <c r="F68" t="n">
+        <v>925</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.256</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.218</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="M68" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="N68" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="O68" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="P68" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>750</v>
+      </c>
+      <c r="R68" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>637.5</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>937.5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>935</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-0.276</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="M69" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="N69" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O69" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="P69" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>250</v>
+      </c>
+      <c r="R69" t="n">
+        <v>34.99999999999996</v>
+      </c>
+      <c r="S69" t="n">
+        <v>215</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>477.5</v>
+      </c>
+      <c r="F70" t="n">
+        <v>480</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>250</v>
+      </c>
+      <c r="R70" t="n">
+        <v>42.49999999999999</v>
+      </c>
+      <c r="S70" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>XOM</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>260130</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="E71" t="n">
         <v>126</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F71" t="n">
         <v>125</v>
       </c>
-      <c r="G48" t="n">
-        <v>-0.25227</v>
-      </c>
-      <c r="H48" t="n">
-        <v>-0.2076</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.08115</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.07276000000000001</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.24279</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.24918</v>
-      </c>
-      <c r="M48" t="n">
+      <c r="G71" t="n">
+        <v>-0.252</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="M71" t="n">
         <v>0.82</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N71" t="n">
         <v>1.09</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O71" t="n">
         <v>0.68</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P71" t="n">
         <v>0.84</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q71" t="n">
         <v>100</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R71" t="n">
         <v>19.50000000000001</v>
       </c>
-      <c r="S48" t="n">
+      <c r="S71" t="n">
         <v>80.5</v>
       </c>
-      <c r="T48" t="n">
-        <v>0.2422360248447206</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0.2878737249068324</v>
+      <c r="T71" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.288</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>EMR</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>260130</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>146</v>
+      </c>
+      <c r="F72" t="n">
+        <v>145</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.282</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.239</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>100</v>
+      </c>
+      <c r="R72" t="n">
+        <v>20</v>
+      </c>
+      <c r="S72" t="n">
+        <v>80</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.288</v>
       </c>
     </row>
   </sheetData>
